--- a/diagramme/Number Sensor.xlsx
+++ b/diagramme/Number Sensor.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keita\Documents\GitHub\BlackMamba\diagramme\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7A9EA-3FEE-4BC2-8D75-AE674EBB1B71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
-  <si>
-    <t>ENTRANCE HALL</t>
-  </si>
-  <si>
-    <t>LIVING ROOM</t>
-  </si>
-  <si>
-    <t>SITTING ROOM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>CORRIDOR E0-A</t>
   </si>
@@ -34,18 +39,6 @@
     <t>CORRIDOR E0-C</t>
   </si>
   <si>
-    <t>ELEVATOR A</t>
-  </si>
-  <si>
-    <t>ELEVATOR B</t>
-  </si>
-  <si>
-    <t>DINING ROOM</t>
-  </si>
-  <si>
-    <t>STAFF ROOM</t>
-  </si>
-  <si>
     <t>CORRIDOR E1-A</t>
   </si>
   <si>
@@ -95,12 +88,84 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ENTRANCE HALL E0</t>
+  </si>
+  <si>
+    <t>LIVING ROOM E0</t>
+  </si>
+  <si>
+    <t>SITTING ROOM E0</t>
+  </si>
+  <si>
+    <t>ELEVATOR A E0</t>
+  </si>
+  <si>
+    <t>ELEVATOR B E0</t>
+  </si>
+  <si>
+    <t>DINING ROOM E0</t>
+  </si>
+  <si>
+    <t>STAFF ROOM E1</t>
+  </si>
+  <si>
+    <t>LIVING ROOM E1</t>
+  </si>
+  <si>
+    <t>DINING ROOM E1</t>
+  </si>
+  <si>
+    <t>CORRIDOR E0-D</t>
+  </si>
+  <si>
+    <t>CORRIDOR E0-E</t>
+  </si>
+  <si>
+    <t>STAFF ROOM E0</t>
+  </si>
+  <si>
+    <t>KITCHEN E0</t>
+  </si>
+  <si>
+    <t>INFIRMARY E0</t>
+  </si>
+  <si>
+    <t>RELAXATION ROOM E0</t>
+  </si>
+  <si>
+    <t>CORRIDOR E1-E</t>
+  </si>
+  <si>
+    <t>CORRIDOR E1-F</t>
+  </si>
+  <si>
+    <t>INFIRMARY E1</t>
+  </si>
+  <si>
+    <t>RELAXATION ROOM E1</t>
+  </si>
+  <si>
+    <t>ELEVATOR A E1</t>
+  </si>
+  <si>
+    <t>ELEVATOR B E1</t>
+  </si>
+  <si>
+    <t>KITCHEN E1</t>
+  </si>
+  <si>
+    <t>SITTING ROOM E1</t>
+  </si>
+  <si>
+    <t>LIVING ROOM B E1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +312,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -294,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +395,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,6 +447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,17 +639,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
@@ -556,7 +658,7 @@
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -571,45 +673,45 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -649,7 +751,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -683,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" ref="M6:M20" si="0">SUM(C6:L6)</f>
+        <f t="shared" ref="M6:M35" si="0">SUM(C6:L6)</f>
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -716,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7:K20" si="1">G7</f>
+        <f t="shared" ref="K7:K26" si="1">G7</f>
         <v>1</v>
       </c>
       <c r="L7" s="1">
@@ -729,7 +831,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -769,7 +871,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -809,7 +911,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -849,165 +951,165 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <f t="shared" ref="K11:K12" si="2">G11</f>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1034,264 +1136,860 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K15" si="3">G15</f>
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="4">G16</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f>SUM(C16:L16)</f>
         <v>10</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f>G28</f>
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" ref="K29:K35" si="5">G29</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <f>G30</f>
+        <v>4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <f>G33</f>
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <f>G34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <f>G35</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUM(C5:C35)</f>
+        <v>27</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:K36" si="6">SUM(D5:D35)</f>
+        <v>27</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="L36" s="1">
+        <f>SUM(L5:L35)</f>
         <v>13</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" ref="C21:M21" si="2">SUM(C5:C20)</f>
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="2"/>
-        <v>158</v>
+      <c r="M36" s="1">
+        <f>SUM(M5:M35)</f>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
